--- a/medicine/Sexualité et sexologie/Pierre_Bourgeade/Pierre_Bourgeade.xlsx
+++ b/medicine/Sexualité et sexologie/Pierre_Bourgeade/Pierre_Bourgeade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Bourgeade, né le 7 novembre 1927 à Morlanne et mort le 12 mars 2009 à Loches, est un homme de lettres français à la fois romancier, dramaturge, poète, scénariste, réalisateur, journaliste, critique littéraire et photographe.
 </t>
@@ -511,15 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Bourgeade naît en 1927 à Morlanne (petit village dans les Pyrénées-Atlantiques).
-Son père, Eugène Bourgeade, receveur-percepteur des impôts, descend d’un Bourgeade ferblantier et colporteur dans le Cantal ; sa mère, Henriette Navarron, est une descendante de Jean Racine[1].
-Il est le beau-frère de l'écrivaine Paule Constant[2].
+Son père, Eugène Bourgeade, receveur-percepteur des impôts, descend d’un Bourgeade ferblantier et colporteur dans le Cantal ; sa mère, Henriette Navarron, est une descendante de Jean Racine.
+Il est le beau-frère de l'écrivaine Paule Constant.
 Il est connu pour avoir été condamné pour « injure au chef de l'État » (par Pompidou) car il avait dénoncé la grâce que ce dernier avait accordée au milicien Paul Touvier.[réf. nécessaire]
-Il meurt le 12 mars 2009 à Loches[3]. Il est enterré à Paris, au cimetière du Montparnasse, division 6[4].
-Hommage
-En 2003 l'écrivain François Prunier lui dédie son premier roman, intitulé Martin Roi.[réf. nécessaire]
+Il meurt le 12 mars 2009 à Loches. Il est enterré à Paris, au cimetière du Montparnasse, division 6.
 </t>
         </is>
       </c>
@@ -545,22 +557,169 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hommage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003 l'écrivain François Prunier lui dédie son premier roman, intitulé Martin Roi.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Théâtre
-Auteur d'une quarantaine de pièces, le nom de Pierre Bourgeade reste lié à deux dates marquantes de la création théâtrale contemporaine[réf. nécessaire] : 1969, Orden, mise en scène par Jorge Lavelli, avènement du « théâtre musical » et 1976, Palazzo Mentale, créée par Georges Lavaudant, prix du syndicat de la critique dramatique.
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auteur d'une quarantaine de pièces, le nom de Pierre Bourgeade reste lié à deux dates marquantes de la création théâtrale contemporaine[réf. nécessaire] : 1969, Orden, mise en scène par Jorge Lavelli, avènement du « théâtre musical » et 1976, Palazzo Mentale, créée par Georges Lavaudant, prix du syndicat de la critique dramatique.
 Parmi ses autres pièces, on peut citer entre autres Deutsches Requiem (mise en scène Daniel Benoin), Fragments pour Guevara (mise en scène Michael Lonsdale), Le Procès de Charles Baudelaire (mise en scène Dominique Quéhec), Petite zoologie amoureuse - PZA (mise en scène Maurice Attias), L'Autorisation (mise en scène Jacques Rosny).
 On lui doit deux adaptations de textes de Georges Bataille : Ma Mère puis Le Mort (mise en scène Maurice Attias). Il a également adapté pour Jean-Louis Barrault Antigone de Sophocle et Les Oiseaux d'Aristophane, dernier spectacle monté et joué par Barrault au Théâtre du Rond-Point.
 Il a travaillé avec le compositeur Marius Constant sur le livret d'un mélodrame fantastique consacré au Marquis de Sade, Teresa (mise en scène Marc Adam au château de Lacoste en juillet 1995).
-Poésie
-L’auteur écrit des poèmes, érotiques souvent, et toujours en vers de sept syllabes.
-Photographie
-Fidèle à ses thèmes littéraires, Bourgeade a surtout photographié du nu, en noir et blanc. Il a été ami de plusieurs photographes, notamment Man Ray[5] avec qui il a réalisé quelques entretiens et Pierre Molinier auquel il a consacré quelques textes.
-Récompenses
-1966 : Prix Hermès-ESCP (Les Immortelles, Gallimard)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’auteur écrit des poèmes, érotiques souvent, et toujours en vers de sept syllabes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Photographie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fidèle à ses thèmes littéraires, Bourgeade a surtout photographié du nu, en noir et blanc. Il a été ami de plusieurs photographes, notamment Man Ray avec qui il a réalisé quelques entretiens et Pierre Molinier auquel il a consacré quelques textes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1966 : Prix Hermès-ESCP (Les Immortelles, Gallimard)
 1976 : Prix du Syndicat de la critique dramatique (Palazzo Mentale)
 1979 : Prix Max-Barthou de l’Académie française (Une ville grise, Gallimard)
 1983 : Prix Mottart de l’Académie française + sélection prix Goncourt (Les Serpents, Gallimard)
@@ -570,33 +729,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pierre_Bourgeade</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Publications (liste non exhaustive)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Romans
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1968 : La Rose rose (Gallimard, coll. « Le Chemin »)
 1969 : New York Party (Gallimard, coll. « Le Chemin »)
 1973 : L'Aurore boréale (Gallimard, coll. « Le Chemin »)
@@ -616,30 +781,171 @@
 2001 : L'Éternel mirage (Tristram)
 2003 : L'Horloge, édition tête-bêche avec le recueil de nouvelles Les Boxeurs (Tristram)
 2004 : Les Comédiens (Tristram)
-2009 : Le Diable (Tristram)[6]
-2014 : Venezia (Tristram)[6]
-Sous le nom de Sabine de Surgis
-1984 : La Femme sans visage (Pygmalion Gérard Watelet)
-Romans noirs
-1986 : La Rondelle (Mercure de France, coll. « Crime parfait »)
+2009 : Le Diable (Tristram)
+2014 : Venezia (Tristram)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications (liste non exhaustive)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sous le nom de Sabine de Surgis</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1984 : La Femme sans visage (Pygmalion Gérard Watelet)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications (liste non exhaustive)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans noirs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1986 : La Rondelle (Mercure de France, coll. « Crime parfait »)
 1998 : Pitbull (Gallimard, coll. « Série noire » no 2481)
 1999 : Téléphone rose (Gallimard, coll. « Série noire » no 2528)
 2001 : En avant les singes ! (suivi de la nouvelle Cette nuit-là, Gallimard, coll. « Série noire » no 2625)
 2001 : Gab save the Di (Baleine, coll. « Le Poulpe »)
 2004 : Crashville (Flammarion)
 2006 : Ramatuelle (Tristram)
-2008 : Ça n'arrive qu'aux mourants (La Branche, coll. « Suite noire » no 26)
-Recueils de nouvelles
-1966 : Les Immortelles (Gallimard, coll. « Le Chemin » - rééd. Folio no 1168)
+2008 : Ça n'arrive qu'aux mourants (La Branche, coll. « Suite noire » no 26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications (liste non exhaustive)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1966 : Les Immortelles (Gallimard, coll. « Le Chemin » - rééd. Folio no 1168)
 1995 : Éros mécanique (Gallimard, coll. « L'Infini » - rééd. Folio no 2989)
 1997 : Cybersex et autres nouvelles (Ed. Blanche)
 1998 : L'Argent (Gallimard, coll. « L'Infini »)
 2000 : L'Autre face, avec Marie L. (Arléa)
 2003 : Les Boxeurs, édition tête-bêche avec le roman L'Horloge (Tristram)
 2007 : Rêves de femmes, ill. de Willem (Tristram)
-2008 : Animamours, ill. de Marie Morel (Éditions HumuS, coll. « Eros-Oser »  (ISBN 2-940-127-43-3)
-Théâtre publié
-1968 : Les Immortelles (Gallimard, « Le Manteau d'Arlequin »). D'après le recueil de nouvelles
+2008 : Animamours, ill. de Marie Morel (Éditions HumuS, coll. « Eros-Oser »  (ISBN 2-940-127-43-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications (liste non exhaustive)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Théâtre publié</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1968 : Les Immortelles (Gallimard, « Le Manteau d'Arlequin »). D'après le recueil de nouvelles
 1973 : Deutsches Requiem (Gallimard, « Le Manteau d'Arlequin »)
 1975 : Orden (Gallimard, « Le Manteau d'Arlequin »)
 1977 : Étoiles rouges (L'Avant-scène Théâtre no 604, 15/02/1977)
@@ -647,35 +953,240 @@
 1989 : Le Camp (Gallimard, « Le Manteau d'Arlequin »). D'après le roman.
 1995 : L'Autorisation (= Le Passeport) (L'Avant-scène Théâtre no 968, 15/04/1995)
 1998 : Élisabeth Báthory (Variable)
-2002 : Berlin 9 novembre (L'Avant-scène Théâtre Collection des quatre-vents[7])
-2004 : Charenton. In Les Comédiens (Tristram)
-Poésie
-1972 : A. noir, corset velu (photos d'Henri Maccheroni de 2000 photographies du sexe d’une femme, portfolio les Mains libres/Jean Petithory)[8]
+2002 : Berlin 9 novembre (L'Avant-scène Théâtre Collection des quatre-vents)
+2004 : Charenton. In Les Comédiens (Tristram)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications (liste non exhaustive)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1972 : A. noir, corset velu (photos d'Henri Maccheroni de 2000 photographies du sexe d’une femme, portfolio les Mains libres/Jean Petithory)
 1979 : Hanthologie pour Henri Maccheroni (texte sur 32 photographies de Henri Maccheroni, Roger Borderie éditeur)
 1984 : Ultimum moriens (dessins de Shirley Carcassonne, coll. « Deleatur », Dominique Bedou)
 1995 : Crânes (la Manière noire)
-2004 : Ô, plein de strideurs étranges (photos d'Henri Maccheroni de 2000 photographies du sexe d’une femme, Abstème et Bobance)
-Essais, livres d'entretiens
-1971 : Violoncelle qui résiste (Le Terrain Vague)
+2004 : Ô, plein de strideurs étranges (photos d'Henri Maccheroni de 2000 photographies du sexe d’une femme, Abstème et Bobance)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications (liste non exhaustive)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Essais, livres d'entretiens</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1971 : Violoncelle qui résiste (Le Terrain Vague)
 1972 : Bonsoir, Man Ray (Belfond)
 1979 : La France à l'abattoir (Ramsay)
-1988 : L'Ordre des ténèbres (avec Claude Alexandre[9] - Denoël)
+1988 : L'Ordre des ténèbres (avec Claude Alexandre - Denoël)
 1991 : Chronique du français quotidien (Belfond)
 1997 : le Mystère Molinier (Pierre Molinier et ses ami(e)s) (Voix Richard Meier)
 1998 : Un encyclopédiste du hasard : Thierry Agullo (L'Équipement de la Pensée/Mona Lisait)
-1999 : Brigitte Lahaie (avec Claude Alexandre[9] - La Musardine)
+1999 : Brigitte Lahaie (avec Claude Alexandre - La Musardine)
 2003 : L'Objet humain (Gallimard, coll. « L'Infini »)
-2003 : « Le Sang du Toro »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?) (avec Claude Alexandre[9] - Atlantica)
-2009 : Éloge des fétichistes (Tristram)[6]
-Photographie
-2007 : Rayographies[10], texte de Jacques Henric, coll. « Erotica » no 28 (Chez Higgins) - portfolio faisant suite à l'exposition à la galerie Christian Arnoux
-Dessins
-2002 : Visite à Sade avec Man Ray et Visite à Pierre Molinier, livres de dessins à tirage limité, galerie Alain Oudin[11]
-Filmographie
-1986 : Léon Blum à l'échelle humaine, téléfilm
-2003 : L'Écrivain et son chien de Gala Fur et Pierre Bourgeade[12]
-2005 : Médor et Baudelaire de Gala Fur et Pierre Bourgeade[12]
-Préfaces, postfaces, collaborations
+2003 : « Le Sang du Toro »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?) (avec Claude Alexandre - Atlantica)
+2009 : Éloge des fétichistes (Tristram)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Publications (liste non exhaustive)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Photographie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2007 : Rayographies, texte de Jacques Henric, coll. « Erotica » no 28 (Chez Higgins) - portfolio faisant suite à l'exposition à la galerie Christian Arnoux</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Publications (liste non exhaustive)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dessins</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2002 : Visite à Sade avec Man Ray et Visite à Pierre Molinier, livres de dessins à tirage limité, galerie Alain Oudin</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Publications (liste non exhaustive)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1986 : Léon Blum à l'échelle humaine, téléfilm
+2003 : L'Écrivain et son chien de Gala Fur et Pierre Bourgeade
+2005 : Médor et Baudelaire de Gala Fur et Pierre Bourgeade</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Publications (liste non exhaustive)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Préfaces, postfaces, collaborations</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cliquer sur "afficher"
 Une forêt de symboles : la poésie. Paris, L’Aventurine - les Éd. du Carrousel, 1999, 650 p.  (ISBN 2-7456-0066-4). coll. « Une petite anthologie littéraire », réf. p. 7-11.
 Alexandre, Claude. Toros. Portfolio. Chez Higgins, coll. « Témoignages », n°13, 2007.
@@ -683,15 +1194,15 @@
 Autrand, Charles. One way : poèmes. Paris, Librairie Saint-Germain-des-Prés, 1970, 50 p. coll. « Poètes contemporains », préf. p. 11-17.
 Blum, Léon. Le Dernier mois. Paris, Arléa, 2000, 95 p.  (ISBN 2-86959-506-9). Préf. p. 5-9.
 Valérie Boisgel. De l’aube à la nuit. Paris, Éd. Blanche, 2004, 139 p. coll. « Bibliothèque Blanche » n° 32.  (ISBN 2-84628-076-2). Préf. p. 9-11.
-Valérie Boisgel. Captive. Paris, Éd. Blanche, 2005, 138 p. coll. « Bibliothèque Blanche »  (ISBN 2 84628 112 2). Préf. p. 9 [12]. Réed. J’ai lu, 2008, 93 p.  (ISBN 978-2-290-01151-5). Préf. p. 7-[9].
+Valérie Boisgel. Captive. Paris, Éd. Blanche, 2005, 138 p. coll. « Bibliothèque Blanche »  (ISBN 2 84628 112 2). Préf. p. 9 . Réed. J’ai lu, 2008, 93 p.  (ISBN 978-2-290-01151-5). Préf. p. 7-.
 Dax-Boyer, Françoise &amp; Michael Lonsdale. L'Éden avant après. Paris, l’Amandier, 2008, 47 p. coll. « Le Voir Dit »  (ISBN 978-2 35516-053-0). Préf. p. 9.
 Lucile Debaille. La Petite musique d'Éros. Paris, Ornicar, 2000.  (ISBN 2-913888-07-0). Rééd. le Cercle, 2003, 151 p. coll. « Le Cercle Poche » n° 36.  (ISBN 2-913563-75-9). Préf. p. 7 8.
 Maîtresse Françoise. Françoise maîtresse : récit. Paris, Gallimard, 1994, 188 p. coll. « Digraphe »  (ISBN 2-07-073834-5). Préf. p. VII-[IX].
 Anatole France. L'Île des pingouins. Paris, Messidor, 1990, 380 p. coll. « Les Grands romans de la liberté » n° 7  (ISBN 978-2-209-06309-3). Préf. p. 11–17.
-Fur, Gala. Séances. Paris, la Musardine, 2002, 140 p.  (ISBN 2 84271-169-6). Préf. p. 7-[10]. Rééd. la Musardine, 2006, 157 p.  (ISBN 2-84271-305-2). coll. « Lectures amoureuses de Jean-Jacques Pauvert » n° 93. Préf. p. 7-[10].
-Nathalie Gassel. Éros androgyne : journal d’une femme athlétique. Namur, Éd. de l’Acanthe, 2000, 104 p. coll. « L’Instant »  (ISBN 2 930219 47 5). Préf. p. [9] 11. Rééd. le Cercle, 2001, 92 p. coll. « Le Cercle Poche » n° 20  (ISBN 2 913563-37-6). Préf. p. 5-8.
+Fur, Gala. Séances. Paris, la Musardine, 2002, 140 p.  (ISBN 2 84271-169-6). Préf. p. 7-. Rééd. la Musardine, 2006, 157 p.  (ISBN 2-84271-305-2). coll. « Lectures amoureuses de Jean-Jacques Pauvert » n° 93. Préf. p. 7-.
+Nathalie Gassel. Éros androgyne : journal d’une femme athlétique. Namur, Éd. de l’Acanthe, 2000, 104 p. coll. « L’Instant »  (ISBN 2 930219 47 5). Préf. p.  11. Rééd. le Cercle, 2001, 92 p. coll. « Le Cercle Poche » n° 20  (ISBN 2 913563-37-6). Préf. p. 5-8.
 Jacques Henric &amp; Amat, Jorge. Obsessions nocturnes. Paris, E-dite, 2006, 121 p.  (ISBN 2-84608-194-8). Préf. p. 9-12.
-Medi Holtrop. Plaisir. Rieux-Volvestre, Orbis Pictus Club, 2008, [152] p.  (ISBN 978-2-913063-29-7). Préf. p. [3-9].
+Medi Holtrop. Plaisir. Rieux-Volvestre, Orbis Pictus Club, 2008,  p.  (ISBN 978-2-913063-29-7). Préf. p. [3-9].
 Irina Ionesco. Cent photos érotiques. Nyons, Éd. Roger Borderie, 1982, 110 p. coll. « Images Obliques »
 Irina Ionesco. Cent onze photographies érotiques. Nyons, Éd. Roger Borderie, 1981, 111 p. coll. « Images Obliques » n° 6.  (ISBN 2-8638-0011-6)
 Irina Ionesco. Le Divan, portfolio. Nyons, Éd. Roger Borderie, 1981, 8 p.-12 f. de pl. Préf. p. 3-7.
@@ -700,17 +1211,53 @@
 Kuniyoshi, Kaneko. Les Jeux, nouvelle illustrée par l'auteur, traduite du japonais par Pierre Bourgeade. Coéd. Shinchosha (Tokyo) et Galerie À l’Enseigne des Oudin (Paris), 1997, 100 p.
 L., Marie. Confessée. Castelnau le Lez, Climats, 1996, 157 p. coll. « Arc en ciel »  (ISBN 2-841-58045-8). Rééd. la Musardine, 2000, 158 p. coll. « Lectures amoureuses de Jean Jacques Pauvert » n° 34  (ISBN 2-8427-1055-X). Préf. p. 5-12.
 L., Marie. Noli me tangere : ne me touche pas. Paris, la Musardine, 2001, 87 p. coll. « Carmina »  (ISBN 2 84271-122-X)
-Le Sage, Patrick. Journal d'un maître. Paris, Flammarion, 2005, 279 p. coll. « Grands conflits du XXe siècle »  (ISBN 2-08-068620-8). Préf. p. 9-[19].
+Le Sage, Patrick. Journal d'un maître. Paris, Flammarion, 2005, 279 p. coll. « Grands conflits du XXe siècle »  (ISBN 2-08-068620-8). Préf. p. 9-.
 Stéphan Lévy-Kuentz. Sur le football. Paris, Méréal, 1998, 66 p. coll. « Citoyenne »  (ISBN 2-909310-73-6). Préf. p. 9-11.
-Stéphan Lévy-Kuentz. Tu me fais mal avec ton coude. Monaco, Éd. du Rocher, 2006, 92 p.  (ISBN 2-268-05922-7). Préf. p. 9-[10].
+Stéphan Lévy-Kuentz. Tu me fais mal avec ton coude. Monaco, Éd. du Rocher, 2006, 92 p.  (ISBN 2-268-05922-7). Préf. p. 9-.
 Henri Maccheroni. Un après-midi chez Pierre Molinier. Bordeaux, Opales-Pleine page éditeurs, 2005, 45 p. Préf. p. 7-11.
 Alain Marc. Écrire le cri. Orléans, L’Écarlate, 2000, 182 p. Préf. p. [VII]-XI  (ISBN 2-910142-04-3)
 Menchior, Rachel. Dessins érotiques de Menchior. Paris, Éd. Éric Losfeld, 1971, 150 p.
 Pierre Molinier. Cent photographies érotiques. Nyons, Éd. Roger Borderie et Michel Camus, 1979, 112 p. coll. « Images obliques » n° 4. Préf. p. 9-15.
 Arthur Rimbaud. Les Vingt plus beaux poèmes. Paris, Librairie Gibert Joseph, 1991, 82 p. coll. « La Substantifique moelle »  (ISBN 2-908959-12-7). Préf. p. 7-8.
 Man Ray. Bonsoir, Man Ray. Paris, Maeght, 2002, 131 p. coll. « Chroniques anachroniques »  (ISBN 2-86941-301-7). Préf. p. 7-11.
-Jean-Pierre Siméon. Matière nuit. Bordeaux, le Castor Astral, 1997, 68 p. coll. « Littératures »  (ISBN 2-85920-296-X). Préf. p. [9]-11.
-Publications en revues
+Jean-Pierre Siméon. Matière nuit. Bordeaux, le Castor Astral, 1997, 68 p. coll. « Littératures »  (ISBN 2-85920-296-X). Préf. p. -11.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Bourgeade</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Publications (liste non exhaustive)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Publications en revues</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cliquer sur "afficher"
 Poésie
 « Grand ciel de mots, Sade en automne », revue Digraphe, republié en ligne sur Inventaire-Invention
@@ -720,7 +1267,7 @@
 Récit « Bourgeade rencontre Genet », revue Variable19 ; republié par et pour Les Lettres françaises sur le site de L'Humanité
 Article sur la revue L'Humidité (dir. Jean-François Bory) et Michel Journiac, les Lettres françaises, juin 2008 [lire en ligne]
 « Joyce and Joyce », la Quinzaine littéraire, 15-31 janv. 1967.
-Chroniques « Bloc-notes », la Revue littéraire no 1 à 7, Éditions Léo Scheer, avr. à oct. 2004 et no 10, janv. 2005[13]
+Chroniques « Bloc-notes », la Revue littéraire no 1 à 7, Éditions Léo Scheer, avr. à oct. 2004 et no 10, janv. 2005
 </t>
         </is>
       </c>
